--- a/utm-tracking-template.xlsx
+++ b/utm-tracking-template.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aban/Documents/半撇私塾课程/Share/MKG201-Exercise-Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yezi/Documents/半撇私塾/对外文件下载/MKG201-Exercise-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="-5720" yWindow="1320" windowWidth="32200" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UMT 批量生成器" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
-  <si>
-    <t>创意</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -44,42 +38,24 @@
     <t>utm_source=</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>&amp;</t>
   </si>
   <si>
     <t>utm_medium=</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>utm_campaign=</t>
   </si>
   <si>
-    <t>campaign</t>
-  </si>
-  <si>
     <t>utm_term=</t>
   </si>
   <si>
-    <t>term</t>
-  </si>
-  <si>
     <t>utm_content=</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>tracking url（此列不需要修改，生成后直接复制）</t>
   </si>
   <si>
-    <t>新媒体爆款工具箱</t>
-  </si>
-  <si>
     <t>http://learn.bpteach.com/course/100</t>
   </si>
   <si>
@@ -99,6 +75,41 @@
   </si>
   <si>
     <t>jianshu.com</t>
+  </si>
+  <si>
+    <t>source（来源）</t>
+    <rPh sb="7" eb="8">
+      <t>lai yuan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium（计划）</t>
+    <rPh sb="7" eb="8">
+      <t>ji hua</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign（单元）</t>
+    <rPh sb="9" eb="10">
+      <t>dan yuan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>term（关键字）</t>
+    <rPh sb="5" eb="6">
+      <t>guan jian zi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>content（创意）</t>
+    <rPh sb="8" eb="9">
+      <t>chuang yi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -106,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -195,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -206,7 +217,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,6 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,37 +506,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
-    <col min="16" max="16" width="3.5" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="139.1640625" customWidth="1"/>
-    <col min="20" max="24" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="139.1640625" customWidth="1"/>
+    <col min="19" max="23" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -537,173 +548,164 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>42948</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="6" t="str">
-        <f t="shared" ref="S2:S3" si="0">CONCATENATE(C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2)</f>
+        <v>15</v>
+      </c>
+      <c r="R2" s="6" t="str">
+        <f t="shared" ref="R2:R3" si="0">CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
         <v>http://learn.bpteach.com/course/100?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=mkg101-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>42948</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="6" t="str">
+        <v>15</v>
+      </c>
+      <c r="R3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://learn.bpteach.com/course/100?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=mkg101-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
       </c>
@@ -711,10 +713,10 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utm-tracking-template.xlsx
+++ b/utm-tracking-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5720" yWindow="1320" windowWidth="32200" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UMT 批量生成器" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="J18" sqref="J18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/utm-tracking-template.xlsx
+++ b/utm-tracking-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="2260" yWindow="2120" windowWidth="28800" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UMT 批量生成器" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -56,16 +56,10 @@
     <t>tracking url（此列不需要修改，生成后直接复制）</t>
   </si>
   <si>
-    <t>http://learn.bpteach.com/course/100</t>
-  </si>
-  <si>
     <t>zhihu.com</t>
   </si>
   <si>
     <t>referral</t>
-  </si>
-  <si>
-    <t>mkg101-bp</t>
   </si>
   <si>
     <t>new-media-toolkits</t>
@@ -109,6 +103,22 @@
     <rPh sb="8" eb="9">
       <t>chuang yi</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mkg201demo.bpteach.com/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mkg201demo.bpteach.com/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkg201-bp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkg201-bp</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +175,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -203,10 +225,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -229,9 +253,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -508,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:K18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -549,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
@@ -558,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>4</v>
@@ -567,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>4</v>
@@ -576,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>4</v>
@@ -585,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -600,8 +627,8 @@
       <c r="A2" s="4">
         <v>42948</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -610,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -619,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
@@ -628,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>4</v>
@@ -637,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>4</v>
@@ -646,19 +673,19 @@
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R2" s="6" t="str">
         <f t="shared" ref="R2:R3" si="0">CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
-        <v>http://learn.bpteach.com/course/100?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=mkg101-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=mkg201-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42948</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -667,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -676,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>4</v>
@@ -685,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>4</v>
@@ -694,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
@@ -703,11 +730,11 @@
         <v>8</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://learn.bpteach.com/course/100?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=mkg101-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=mkg201-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
       </c>
     </row>
   </sheetData>

--- a/utm-tracking-template.xlsx
+++ b/utm-tracking-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="2120" windowWidth="28800" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2120" windowWidth="28800" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UMT 批量生成器" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>referral</t>
   </si>
   <si>
-    <t>new-media-toolkits</t>
-  </si>
-  <si>
     <t>textlink</t>
   </si>
   <si>
@@ -114,11 +111,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>mkg201-bp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkg201-bp</t>
+    <t>7days-grow-up</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7days-grow-up</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-CNM12345678</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -225,9 +226,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
@@ -255,10 +258,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -535,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -576,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
@@ -585,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>4</v>
@@ -594,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>4</v>
@@ -603,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>4</v>
@@ -612,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -628,7 +633,7 @@
         <v>42948</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -655,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>4</v>
@@ -664,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>4</v>
@@ -673,11 +678,11 @@
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R2" s="6" t="str">
         <f t="shared" ref="R2:R3" si="0">CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
-        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=mkg201-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=24-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -685,7 +690,7 @@
         <v>42948</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -694,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -721,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
@@ -730,11 +735,11 @@
         <v>8</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=mkg201-bp&amp;utm_term=new-media-toolkits&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=24-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
       </c>
     </row>
   </sheetData>

--- a/utm-tracking-template.xlsx
+++ b/utm-tracking-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -119,7 +119,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>24-CNM12345678</t>
+    <t>yz-CNM12345678</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz-CNM12345678</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -682,7 +686,7 @@
       </c>
       <c r="R2" s="6" t="str">
         <f t="shared" ref="R2:R3" si="0">CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
-        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=24-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=yz-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -717,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>4</v>
@@ -739,7 +743,7 @@
       </c>
       <c r="R3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=24-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=yz-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
       </c>
     </row>
   </sheetData>

--- a/utm-tracking-template.xlsx
+++ b/utm-tracking-template.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yezi/Documents/半撇私塾/对外文件下载/MKG201-Exercise-Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yezi/Documents/GitHub/半撇私塾课程/对外下载配套文件/MKG201-Exercise-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2120" windowWidth="28800" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="25600" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UMT 批量生成器" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -111,19 +114,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>7days-grow-up</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>7days-grow-up</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>yz-CNM12345678</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>yz-CNM12345678</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession-guide</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -230,9 +229,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,12 +263,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -664,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>4</v>
@@ -673,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>4</v>
@@ -686,7 +689,7 @@
       </c>
       <c r="R2" s="6" t="str">
         <f t="shared" ref="R2:R3" si="0">CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
-        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=yz-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=zhihu.com&amp;utm_medium=referral&amp;utm_campaign=yz-CNM12345678&amp;utm_term=profession-guide&amp;utm_content=textlink</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -721,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>4</v>
@@ -730,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
@@ -743,7 +746,7 @@
       </c>
       <c r="R3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=yz-CNM12345678&amp;utm_term=7days-grow-up&amp;utm_content=textlink</v>
+        <v>http://mkg201demo.bpteach.com/?utm_source=jianshu.com&amp;utm_medium=referral&amp;utm_campaign=yz-CNM12345678&amp;utm_term=profession-guide&amp;utm_content=textlink</v>
       </c>
     </row>
   </sheetData>
